--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43655</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43685</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43950</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44097</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44153</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44477</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44929</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44935</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45096</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43361</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43397</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y298"/>
+  <dimension ref="A1:Y301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 9579-2019</t>
+          <t>A 5030-2019</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43508</v>
+        <v>43487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,8 +1214,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>8.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1249,1237 +1254,1265 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 5030-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 5030-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 9579-2019</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>43508</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Granspira</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 9579-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 9579-2019.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 9579-2019.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 9579-2019.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 9579-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 9579-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 35654-2019</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43655</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35654-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35654-2019.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35654-2019.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35654-2019.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35654-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35654-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 38446-2019</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43685</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>1.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 38446-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 38446-2019.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 38446-2019.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 38446-2019.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 38446-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 38446-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 20974-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43950</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 20974-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 20974-2020.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 20974-2020.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 20974-2020.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 20974-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 20974-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 42905-2020</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44078</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 42905-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 42905-2020.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 42905-2020.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 42905-2020.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 42905-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 42905-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 47314-2020</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44097</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>1.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Stubbspretmossa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 47314-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 47314-2020.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 47314-2020.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 47314-2020.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 47314-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 47314-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 60559-2020</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44153</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>27.7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 60559-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 60559-2020.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 60559-2020.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 60559-2020.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 60559-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 60559-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 28140-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>1.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 28140-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 28140-2021.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 28140-2021.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 28140-2021.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 28140-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 28140-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 56068-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44477</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>7.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Huggorm</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 56068-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 56068-2021.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 56068-2021.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 56068-2021.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 56068-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 56068-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 15075-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44657</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>3.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 15075-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 15075-2022.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 15075-2022.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 15075-2022.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 15075-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 15075-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 364-2023</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44929</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>2.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Guldsandbi</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 364-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 364-2023.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 364-2023.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 364-2023.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 364-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 364-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 515-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44930</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>6.6</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 515-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 515-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 515-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 515-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 515-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 515-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 1195-2023</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44935</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>11.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Hasselticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 1195-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 1195-2023.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 1195-2023.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 1195-2023.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 1195-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 1195-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 27073-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45096</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Ullticka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 35036-2018</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>43322</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35930-2018</t>
+          <t>A 35036-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43327</v>
+        <v>43322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2492,7 +2525,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2529,14 +2562,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43034-2018</t>
+          <t>A 35930-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43353</v>
+        <v>43327</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2586,14 +2619,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43041-2018</t>
+          <t>A 43034-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2606,7 +2639,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2643,14 +2676,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44693-2018</t>
+          <t>A 43041-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43361</v>
+        <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2663,7 +2696,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2700,14 +2733,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 45692-2018</t>
+          <t>A 44693-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43362</v>
+        <v>43361</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2757,14 +2790,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51714-2018</t>
+          <t>A 45692-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43381</v>
+        <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2777,7 +2810,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2814,14 +2847,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52734-2018</t>
+          <t>A 51714-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43384</v>
+        <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2833,13 +2866,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2904,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55557-2018</t>
+          <t>A 52734-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43397</v>
+        <v>43384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2929,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2938,14 +2966,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55535-2018</t>
+          <t>A 55557-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2957,8 +2985,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2995,14 +3028,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55558-2018</t>
+          <t>A 55535-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3014,13 +3047,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3057,14 +3085,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55556-2018</t>
+          <t>A 55558-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3110,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3119,14 +3147,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 65260-2018</t>
+          <t>A 55556-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43432</v>
+        <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3172,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3181,14 +3209,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65226-2018</t>
+          <t>A 65260-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3206,7 +3234,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3243,14 +3271,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65351-2018</t>
+          <t>A 65226-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3296,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3305,14 +3333,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 68403-2018</t>
+          <t>A 65351-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43438</v>
+        <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3324,8 +3352,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3362,14 +3395,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5030-2019</t>
+          <t>A 68403-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43487</v>
+        <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3381,13 +3414,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>9.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3431,7 +3459,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3493,7 +3521,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3583,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3640,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3697,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3726,7 +3754,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3783,7 +3811,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3840,7 +3868,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3897,7 +3925,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3954,7 +3982,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4011,7 +4039,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4068,7 +4096,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4125,7 +4153,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4182,7 +4210,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4239,7 +4267,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4296,7 +4324,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4353,7 +4381,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4410,7 +4438,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4467,7 +4495,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4524,7 +4552,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4581,7 +4609,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4638,7 +4666,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4723,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4780,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4837,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4894,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4951,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4985,7 +5013,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5047,7 +5075,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5104,7 +5132,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5161,7 +5189,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5218,7 +5246,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5280,7 +5308,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5342,7 +5370,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5404,7 +5432,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5494,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5528,7 +5556,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5590,7 +5618,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5652,7 +5680,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5742,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5776,7 +5804,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5838,7 +5866,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5895,7 +5923,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5952,7 +5980,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6014,7 +6042,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6076,7 +6104,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6138,7 +6166,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6228,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6262,7 +6290,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6324,7 +6352,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6409,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6466,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6523,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6580,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6637,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6694,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6751,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6808,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6865,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6922,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6979,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7013,7 +7041,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7075,7 +7103,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7132,7 +7160,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7189,7 +7217,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7251,7 +7279,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,7 +7341,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7370,7 +7398,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7427,7 +7455,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7484,7 +7512,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7569,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7598,7 +7626,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7655,7 +7683,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7712,7 +7740,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7769,7 +7797,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7826,7 +7854,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7883,7 +7911,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7940,7 +7968,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7997,7 +8025,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8054,7 +8082,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8111,7 +8139,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8168,7 +8196,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8225,7 +8253,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8282,7 +8310,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8339,7 +8367,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8396,7 +8424,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8453,7 +8481,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8543,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8577,7 +8605,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8639,7 +8667,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8701,7 +8729,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8763,7 +8791,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8853,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8887,7 +8915,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8949,7 +8977,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9011,7 +9039,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9073,7 +9101,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9135,7 +9163,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9197,7 +9225,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9254,7 +9282,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9311,7 +9339,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9368,7 +9396,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9425,7 +9453,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9482,7 +9510,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9567,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9624,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9686,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9715,7 +9743,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9772,7 +9800,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9829,7 +9857,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9886,7 +9914,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9943,7 +9971,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10000,7 +10028,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10057,7 +10085,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10114,7 +10142,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10171,7 +10199,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10228,7 +10256,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10285,7 +10313,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10342,7 +10370,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10399,7 +10427,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10456,7 +10484,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10518,7 +10546,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10575,7 +10603,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10660,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10722,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10779,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10808,7 +10836,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10865,7 +10893,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10927,7 +10955,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10989,7 +11017,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11046,7 +11074,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11103,7 +11131,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11165,7 +11193,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11222,7 +11250,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11279,7 +11307,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11336,7 +11364,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11393,7 +11421,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11450,7 +11478,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11512,7 +11540,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11569,7 +11597,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11626,7 +11654,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11688,7 +11716,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11750,7 +11778,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11807,7 +11835,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11864,7 +11892,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11921,7 +11949,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11978,7 +12006,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12035,7 +12063,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12092,7 +12120,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12149,7 +12177,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12211,7 +12239,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12268,7 +12296,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12325,7 +12353,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12382,7 +12410,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12439,7 +12467,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12501,7 +12529,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12591,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12625,7 +12653,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12682,7 +12710,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12739,7 +12767,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12796,7 +12824,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12881,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12943,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12972,7 +13000,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13029,7 +13057,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13086,7 +13114,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13143,7 +13171,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13200,7 +13228,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13257,7 +13285,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13314,7 +13342,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13371,7 +13399,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13428,7 +13456,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13513,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13542,7 +13570,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13599,7 +13627,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13656,7 +13684,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13718,7 +13746,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13775,7 +13803,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13837,7 +13865,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13927,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13989,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14018,7 +14046,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14080,7 +14108,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14170,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14232,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14294,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14351,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14408,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14465,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14522,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14579,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14636,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14693,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14750,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14784,7 +14812,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14841,7 +14869,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14903,7 +14931,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14965,7 +14993,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15022,7 +15050,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15107,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15141,7 +15169,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15198,7 +15226,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15260,7 +15288,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15322,7 +15350,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15412,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15446,7 +15474,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15536,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15598,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15632,7 +15660,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15689,7 +15717,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15751,7 +15779,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15808,7 +15836,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15865,7 +15893,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15922,7 +15950,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +16007,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16069,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16103,7 +16131,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16160,7 +16188,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16217,7 +16245,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16274,7 +16302,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16336,7 +16364,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16398,7 +16426,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16460,7 +16488,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16522,7 +16550,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16579,7 +16607,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16641,7 +16669,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16698,7 +16726,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16760,7 +16788,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16817,7 +16845,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16874,7 +16902,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16931,7 +16959,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16988,7 +17016,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17045,7 +17073,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17130,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17159,7 +17187,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17216,7 +17244,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17273,7 +17301,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17330,7 +17358,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17392,7 +17420,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17454,7 +17482,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17516,7 +17544,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17578,7 +17606,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17635,7 +17663,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17692,7 +17720,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17754,7 +17782,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17811,7 +17839,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17868,7 +17896,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17925,7 +17953,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17987,7 +18015,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18044,7 +18072,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18106,7 +18134,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18163,7 +18191,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18220,7 +18248,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18277,7 +18305,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18334,7 +18362,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18391,7 +18419,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18448,7 +18476,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18505,7 +18533,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18552,7 +18580,7 @@
       </c>
       <c r="R297" s="2" t="inlineStr"/>
     </row>
-    <row r="298">
+    <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
           <t>A 39288-2023</t>
@@ -18562,7 +18590,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18608,6 +18636,187 @@
         <v>0</v>
       </c>
       <c r="R298" s="2" t="inlineStr"/>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>A 40887-2023</t>
+        </is>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C299" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" s="2" t="inlineStr"/>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>A 41181-2023</t>
+        </is>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" s="2" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>A 41196-2023</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y301"/>
+  <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 5030-2019</t>
+          <t>A 9579-2019</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43487</v>
+        <v>43508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,13 +1214,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1254,45 +1249,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Granspira</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 5030-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 9579-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 5030-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 9579-2019.png")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 9579-2019.docx")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 9579-2019.docx")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 9579-2019.docx")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 9579-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 9579-2019</t>
+          <t>A 35654-2019</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43508</v>
+        <v>43655</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,17 +1299,22 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1339,45 +1339,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Granspira</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 9579-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35654-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 9579-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35654-2019.png")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35654-2019.docx")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35654-2019.docx")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35654-2019.docx")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35654-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35654-2019</t>
+          <t>A 38446-2019</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43655</v>
+        <v>43685</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,13 +1389,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1429,45 +1424,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35654-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 38446-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35654-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 38446-2019.png")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 38446-2019.docx")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 38446-2019.docx")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 38446-2019.docx")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 38446-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 38446-2019</t>
+          <t>A 20974-2020</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43685</v>
+        <v>43950</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,24 +1474,29 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1504,55 +1504,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 38446-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 20974-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 38446-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 20974-2020.png")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 20974-2020.docx")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 20974-2020.docx")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 20974-2020.docx")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 20974-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 20974-2020</t>
+          <t>A 42905-2020</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43950</v>
+        <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,17 +1564,12 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G13" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1594,55 +1589,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 20974-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 42905-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 20974-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 42905-2020.png")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 42905-2020.docx")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 42905-2020.docx")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 42905-2020.docx")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 42905-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42905-2020</t>
+          <t>A 47314-2020</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44078</v>
+        <v>44097</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1654,14 +1649,19 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>9.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1689,45 +1689,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 42905-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 47314-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 42905-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 47314-2020.png")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 47314-2020.docx")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 47314-2020.docx")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 47314-2020.docx")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 47314-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 47314-2020</t>
+          <t>A 60559-2020</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44097</v>
+        <v>44153</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1741,21 +1741,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>27.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1779,45 +1779,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 47314-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 60559-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 47314-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 60559-2020.png")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 60559-2020.docx")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 60559-2020.docx")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 60559-2020.docx")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 60559-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60559-2020</t>
+          <t>A 28140-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44153</v>
+        <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,11 +1831,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>27.7</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1869,45 +1869,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 60559-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 28140-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 60559-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 28140-2021.png")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 28140-2021.docx")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 28140-2021.docx")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 28140-2021.docx")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 28140-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28140-2021</t>
+          <t>A 56068-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44355</v>
+        <v>44477</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,22 +1919,17 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>7.7</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1949,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1959,45 +1954,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Skogsklocka</t>
+          <t>Huggorm</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 28140-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 56068-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 28140-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 56068-2021.png")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 56068-2021.docx")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 56068-2021.docx")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 56068-2021.docx")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 56068-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 56068-2021</t>
+          <t>A 15075-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44477</v>
+        <v>44657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2010,13 +2005,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2044,45 +2039,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Huggorm</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 56068-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 15075-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 56068-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 15075-2022.png")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 15075-2022.docx")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 15075-2022.docx")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 15075-2022.docx")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 15075-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15075-2022</t>
+          <t>A 364-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44657</v>
+        <v>44929</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2094,18 +2089,23 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2129,45 +2129,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 15075-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 364-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 15075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 364-2023.png")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 364-2023.docx")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 364-2023.docx")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 364-2023.docx")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 364-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 364-2023</t>
+          <t>A 515-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2179,13 +2179,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2194,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2212,52 +2207,52 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 364-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 515-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 364-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 515-2023.png")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 515-2023.docx")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 515-2023.docx")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 515-2023.docx")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 515-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 515-2023</t>
+          <t>A 1195-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2270,13 +2265,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2285,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2294,55 +2289,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 515-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 1195-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 515-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 1195-2023.png")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 1195-2023.docx")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 1195-2023.docx")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 1195-2023.docx")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 1195-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1195-2023</t>
+          <t>A 27073-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44935</v>
+        <v>45096</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2355,17 +2350,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.2</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2379,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2389,45 +2384,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 1195-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 1195-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27073-2023</t>
+          <t>A 35036-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45096</v>
+        <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2435,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2449,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2464,55 +2459,27 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35036-2018</t>
+          <t>A 35930-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43322</v>
+        <v>43327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2525,7 +2492,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2562,14 +2529,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35930-2018</t>
+          <t>A 43034-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43327</v>
+        <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2619,14 +2586,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43034-2018</t>
+          <t>A 43041-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2639,7 +2606,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2676,14 +2643,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43041-2018</t>
+          <t>A 44693-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43353</v>
+        <v>43361</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2696,7 +2663,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2733,14 +2700,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44693-2018</t>
+          <t>A 45692-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43361</v>
+        <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2790,14 +2757,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45692-2018</t>
+          <t>A 51714-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43362</v>
+        <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2810,7 +2777,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2847,14 +2814,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 51714-2018</t>
+          <t>A 52734-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43381</v>
+        <v>43384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2866,8 +2833,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2904,14 +2876,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52734-2018</t>
+          <t>A 55557-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43384</v>
+        <v>43397</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2901,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2966,14 +2938,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55557-2018</t>
+          <t>A 55535-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2985,13 +2957,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3028,14 +2995,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55535-2018</t>
+          <t>A 55558-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,8 +3014,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3085,14 +3057,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55558-2018</t>
+          <t>A 55556-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3082,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3147,14 +3119,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55556-2018</t>
+          <t>A 65260-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43397</v>
+        <v>43432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3172,7 +3144,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3209,14 +3181,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65260-2018</t>
+          <t>A 65226-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3234,7 +3206,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3271,14 +3243,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65226-2018</t>
+          <t>A 65351-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43432</v>
+        <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3296,7 +3268,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3333,14 +3305,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 65351-2018</t>
+          <t>A 68403-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43433</v>
+        <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3352,13 +3324,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3395,14 +3362,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 68403-2018</t>
+          <t>A 5030-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43438</v>
+        <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3414,8 +3381,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3459,7 +3431,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3521,7 +3493,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3583,7 +3555,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3640,7 +3612,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3697,7 +3669,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3754,7 +3726,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3811,7 +3783,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3868,7 +3840,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3925,7 +3897,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3982,7 +3954,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4039,7 +4011,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4096,7 +4068,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4153,7 +4125,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4210,7 +4182,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4267,7 +4239,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4324,7 +4296,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4381,7 +4353,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4438,7 +4410,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4495,7 +4467,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4552,7 +4524,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4609,7 +4581,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4666,7 +4638,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4723,7 +4695,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4780,7 +4752,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4837,7 +4809,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4894,7 +4866,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4951,7 +4923,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5013,7 +4985,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5075,7 +5047,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5132,7 +5104,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5189,7 +5161,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5246,7 +5218,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5308,7 +5280,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5370,7 +5342,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5432,7 +5404,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5494,7 +5466,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5556,7 +5528,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5590,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5680,7 +5652,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5742,7 +5714,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5804,7 +5776,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5866,7 +5838,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5923,7 +5895,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5980,7 +5952,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6042,7 +6014,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6104,7 +6076,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6166,7 +6138,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6228,7 +6200,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6262,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6324,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6381,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6438,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6495,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6552,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6609,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6666,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6751,7 +6723,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6808,7 +6780,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6865,7 +6837,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6922,7 +6894,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6979,7 +6951,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7041,7 +7013,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7103,7 +7075,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7160,7 +7132,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7217,7 +7189,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7251,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7313,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7370,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7427,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7484,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7541,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7598,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7655,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7712,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7769,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7826,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7883,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +7997,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8054,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8111,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8168,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8225,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8282,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8367,7 +8339,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8424,7 +8396,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8481,7 +8453,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8543,7 +8515,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8577,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8639,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8729,7 +8701,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8791,7 +8763,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8825,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8887,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8977,7 +8949,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9039,7 +9011,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9101,7 +9073,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9163,7 +9135,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9225,7 +9197,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9282,7 +9254,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9339,7 +9311,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9396,7 +9368,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9453,7 +9425,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9510,7 +9482,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9567,7 +9539,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9624,7 +9596,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9686,7 +9658,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9743,7 +9715,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9800,7 +9772,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9857,7 +9829,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9914,7 +9886,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9971,7 +9943,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10028,7 +10000,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10085,7 +10057,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10114,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10171,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10228,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10285,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10342,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10399,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10456,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10546,7 +10518,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10603,7 +10575,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10660,7 +10632,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10722,7 +10694,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10779,7 +10751,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10836,7 +10808,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10893,7 +10865,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10955,7 +10927,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11017,7 +10989,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11074,7 +11046,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11131,7 +11103,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11193,7 +11165,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11250,7 +11222,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11307,7 +11279,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11364,7 +11336,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11421,7 +11393,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11478,7 +11450,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11540,7 +11512,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11597,7 +11569,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11654,7 +11626,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11716,7 +11688,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11778,7 +11750,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11835,7 +11807,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11892,7 +11864,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11949,7 +11921,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12006,7 +11978,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12063,7 +12035,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12120,7 +12092,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12149,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12211,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12268,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12325,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12382,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12439,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12529,7 +12501,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12591,7 +12563,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12653,7 +12625,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12710,7 +12682,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12767,7 +12739,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12824,7 +12796,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12881,7 +12853,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12943,7 +12915,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13000,7 +12972,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13057,7 +13029,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13114,7 +13086,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13171,7 +13143,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13228,7 +13200,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13285,7 +13257,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,7 +13314,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13399,7 +13371,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13456,7 +13428,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13513,7 +13485,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13570,7 +13542,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13627,7 +13599,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13684,7 +13656,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13746,7 +13718,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13803,7 +13775,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13865,7 +13837,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13927,7 +13899,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13989,7 +13961,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14046,7 +14018,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14108,7 +14080,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14170,7 +14142,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14232,7 +14204,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14294,7 +14266,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14351,7 +14323,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14408,7 +14380,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14465,7 +14437,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14522,7 +14494,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14579,7 +14551,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14636,7 +14608,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14693,7 +14665,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14750,7 +14722,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14812,7 +14784,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14869,7 +14841,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14903,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14993,7 +14965,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15050,7 +15022,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15107,7 +15079,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15169,7 +15141,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15226,7 +15198,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15288,7 +15260,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15350,7 +15322,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15412,7 +15384,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15474,7 +15446,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15536,7 +15508,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15598,7 +15570,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15660,7 +15632,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15717,7 +15689,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15779,7 +15751,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15836,7 +15808,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15893,7 +15865,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15950,7 +15922,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16007,7 +15979,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16041,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16103,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16160,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16245,7 +16217,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16302,7 +16274,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16336,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16398,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16460,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16522,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16579,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16669,7 +16641,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16726,7 +16698,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16788,7 +16760,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16817,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16874,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16959,7 +16931,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17016,7 +16988,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17073,7 +17045,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17130,7 +17102,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17187,7 +17159,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17244,7 +17216,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17301,7 +17273,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17358,7 +17330,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17420,7 +17392,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17482,7 +17454,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17544,7 +17516,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17606,7 +17578,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17663,7 +17635,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17720,7 +17692,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17782,7 +17754,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17839,7 +17811,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17896,7 +17868,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17953,7 +17925,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +17987,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18044,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18106,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18163,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18220,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18277,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18334,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18419,7 +18391,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18476,7 +18448,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18533,7 +18505,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18590,7 +18562,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18647,7 +18619,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18704,7 +18676,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18756,7 +18728,7 @@
       </c>
       <c r="R300" s="2" t="inlineStr"/>
     </row>
-    <row r="301">
+    <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
           <t>A 41196-2023</t>
@@ -18766,7 +18738,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18817,6 +18789,63 @@
         <v>0</v>
       </c>
       <c r="R301" s="2" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>A 41515-2023</t>
+        </is>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43655</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43685</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43950</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44097</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44153</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44477</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>44657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44929</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44930</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44935</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45096</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43361</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43397</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>43432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43438</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43487</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 9579-2019</t>
+          <t>A 5030-2019</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43508</v>
+        <v>43487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,8 +1214,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>8.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1249,1237 +1254,1265 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 5030-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 5030-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 5030-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 9579-2019</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>43508</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Granspira</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 9579-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 9579-2019.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 9579-2019.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 9579-2019.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 9579-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 9579-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 35654-2019</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43655</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35654-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35654-2019.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35654-2019.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35654-2019.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35654-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35654-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 38446-2019</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43685</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>1.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 38446-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 38446-2019.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 38446-2019.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 38446-2019.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 38446-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 38446-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 20974-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43950</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 20974-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 20974-2020.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 20974-2020.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 20974-2020.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 20974-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 20974-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 42905-2020</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44078</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Större vattensalamander</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 42905-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 42905-2020.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 42905-2020.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 42905-2020.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 42905-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 42905-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 47314-2020</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44097</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>1.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Stubbspretmossa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 47314-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 47314-2020.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 47314-2020.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 47314-2020.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 47314-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 47314-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 60559-2020</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44153</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>27.7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 60559-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 60559-2020.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 60559-2020.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 60559-2020.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 60559-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 60559-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 28140-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>1.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 28140-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 28140-2021.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 28140-2021.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 28140-2021.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 28140-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 28140-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 56068-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44477</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>7.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Huggorm</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 56068-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 56068-2021.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 56068-2021.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 56068-2021.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 56068-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 56068-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 15075-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44657</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>3.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Strutbräken</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 15075-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 15075-2022.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 15075-2022.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 15075-2022.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 15075-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 15075-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 364-2023</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44929</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>2.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Guldsandbi</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 364-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 364-2023.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 364-2023.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 364-2023.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 364-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 364-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 515-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44930</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>6.6</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 515-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 515-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 515-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 515-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 515-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 515-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 1195-2023</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44935</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>11.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Hasselticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 1195-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 1195-2023.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 1195-2023.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 1195-2023.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 1195-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 1195-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 27073-2023</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45096</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Ullticka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 35036-2018</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>43322</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35930-2018</t>
+          <t>A 35036-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43327</v>
+        <v>43322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2492,7 +2525,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2529,14 +2562,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43034-2018</t>
+          <t>A 35930-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43353</v>
+        <v>43327</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2586,14 +2619,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43041-2018</t>
+          <t>A 43034-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2606,7 +2639,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2643,14 +2676,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44693-2018</t>
+          <t>A 43041-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43361</v>
+        <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2663,7 +2696,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2700,14 +2733,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 45692-2018</t>
+          <t>A 44693-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43362</v>
+        <v>43361</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2757,14 +2790,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51714-2018</t>
+          <t>A 45692-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43381</v>
+        <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2777,7 +2810,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2814,14 +2847,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52734-2018</t>
+          <t>A 51714-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43384</v>
+        <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2833,13 +2866,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2876,14 +2904,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55557-2018</t>
+          <t>A 52734-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43397</v>
+        <v>43384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2929,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2938,14 +2966,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55535-2018</t>
+          <t>A 55557-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2957,8 +2985,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2995,14 +3028,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55558-2018</t>
+          <t>A 55535-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3014,13 +3047,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3057,14 +3085,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55556-2018</t>
+          <t>A 55558-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,7 +3110,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3119,14 +3147,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 65260-2018</t>
+          <t>A 55556-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43432</v>
+        <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3172,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3181,14 +3209,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 65226-2018</t>
+          <t>A 65260-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3206,7 +3234,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3243,14 +3271,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65351-2018</t>
+          <t>A 65226-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3268,7 +3296,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3305,14 +3333,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 68403-2018</t>
+          <t>A 65351-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43438</v>
+        <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3324,8 +3352,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3362,14 +3395,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5030-2019</t>
+          <t>A 68403-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43487</v>
+        <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3381,13 +3414,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>9.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3431,7 +3459,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3493,7 +3521,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3555,7 +3583,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3612,7 +3640,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3669,7 +3697,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3726,7 +3754,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3783,7 +3811,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3840,7 +3868,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3897,7 +3925,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3954,7 +3982,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4011,7 +4039,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4068,7 +4096,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4125,7 +4153,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4182,7 +4210,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4239,7 +4267,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4296,7 +4324,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4353,7 +4381,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4410,7 +4438,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4467,7 +4495,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4524,7 +4552,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4581,7 +4609,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4638,7 +4666,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4695,7 +4723,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4752,7 +4780,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4809,7 +4837,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4866,7 +4894,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4923,7 +4951,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4985,7 +5013,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5047,7 +5075,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5104,7 +5132,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5161,7 +5189,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5218,7 +5246,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5280,7 +5308,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5342,7 +5370,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5404,7 +5432,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5494,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5528,7 +5556,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5590,7 +5618,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5652,7 +5680,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5714,7 +5742,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5776,7 +5804,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5838,7 +5866,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5895,7 +5923,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5952,7 +5980,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6014,7 +6042,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6076,7 +6104,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6138,7 +6166,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6228,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6262,7 +6290,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6324,7 +6352,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6409,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6466,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6523,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6580,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6637,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6694,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6751,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6808,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6865,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6922,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6979,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7013,7 +7041,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7075,7 +7103,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7132,7 +7160,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7189,7 +7217,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7251,7 +7279,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,7 +7341,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7370,7 +7398,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7427,7 +7455,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7484,7 +7512,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7569,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7598,7 +7626,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7655,7 +7683,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7712,7 +7740,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7769,7 +7797,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7826,7 +7854,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7883,7 +7911,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7940,7 +7968,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7997,7 +8025,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8054,7 +8082,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8111,7 +8139,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8168,7 +8196,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8225,7 +8253,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8282,7 +8310,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8339,7 +8367,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8396,7 +8424,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8453,7 +8481,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8543,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8577,7 +8605,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8639,7 +8667,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8701,7 +8729,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8763,7 +8791,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8825,7 +8853,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8887,7 +8915,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8949,7 +8977,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9011,7 +9039,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9073,7 +9101,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9135,7 +9163,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9197,7 +9225,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9254,7 +9282,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9311,7 +9339,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9368,7 +9396,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9425,7 +9453,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9482,7 +9510,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9539,7 +9567,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9596,7 +9624,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9658,7 +9686,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9715,7 +9743,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9772,7 +9800,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9829,7 +9857,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9886,7 +9914,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9943,7 +9971,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10000,7 +10028,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10057,7 +10085,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10114,7 +10142,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10171,7 +10199,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10228,7 +10256,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10285,7 +10313,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10342,7 +10370,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10399,7 +10427,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10456,7 +10484,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10518,7 +10546,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10575,7 +10603,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10660,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10722,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10779,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10808,7 +10836,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10865,7 +10893,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10927,7 +10955,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10989,7 +11017,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11046,7 +11074,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11103,7 +11131,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11165,7 +11193,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11222,7 +11250,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11279,7 +11307,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11336,7 +11364,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11393,7 +11421,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11450,7 +11478,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11512,7 +11540,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11569,7 +11597,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11626,7 +11654,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11688,7 +11716,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11750,7 +11778,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11807,7 +11835,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11864,7 +11892,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11921,7 +11949,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11978,7 +12006,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12035,7 +12063,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12092,7 +12120,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12149,7 +12177,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12211,7 +12239,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12268,7 +12296,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12325,7 +12353,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12382,7 +12410,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12439,7 +12467,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12501,7 +12529,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12591,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12625,7 +12653,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12682,7 +12710,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12739,7 +12767,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12796,7 +12824,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12881,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12943,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12972,7 +13000,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13029,7 +13057,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13086,7 +13114,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13143,7 +13171,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13200,7 +13228,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13257,7 +13285,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13314,7 +13342,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13371,7 +13399,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13428,7 +13456,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13485,7 +13513,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13542,7 +13570,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13599,7 +13627,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13656,7 +13684,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13718,7 +13746,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13775,7 +13803,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13837,7 +13865,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13927,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13989,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14018,7 +14046,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14080,7 +14108,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14142,7 +14170,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14232,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14294,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14351,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14408,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14465,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14522,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14579,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14636,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14693,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14750,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14784,7 +14812,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14841,7 +14869,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14903,7 +14931,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14965,7 +14993,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15022,7 +15050,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15107,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15141,7 +15169,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15198,7 +15226,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15260,7 +15288,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15322,7 +15350,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15412,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15446,7 +15474,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15536,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15598,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15632,7 +15660,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15689,7 +15717,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15751,7 +15779,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15808,7 +15836,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15865,7 +15893,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15922,7 +15950,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +16007,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16069,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16103,7 +16131,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16160,7 +16188,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16217,7 +16245,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16274,7 +16302,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16336,7 +16364,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16398,7 +16426,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16460,7 +16488,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16522,7 +16550,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16579,7 +16607,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16641,7 +16669,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16698,7 +16726,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16760,7 +16788,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16817,7 +16845,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16874,7 +16902,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16931,7 +16959,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16988,7 +17016,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17045,7 +17073,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17102,7 +17130,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17159,7 +17187,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17216,7 +17244,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17273,7 +17301,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17330,7 +17358,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17392,7 +17420,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17454,7 +17482,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17516,7 +17544,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17578,7 +17606,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17635,7 +17663,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17692,7 +17720,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17754,7 +17782,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17811,7 +17839,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17868,7 +17896,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17925,7 +17953,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17987,7 +18015,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18044,7 +18072,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18106,7 +18134,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18163,7 +18191,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18220,7 +18248,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18277,7 +18305,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18334,7 +18362,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18391,7 +18419,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18448,7 +18476,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18505,7 +18533,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18562,7 +18590,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18619,7 +18647,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18676,7 +18704,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18738,7 +18766,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18800,7 +18828,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43655</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43685</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44097</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44153</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44477</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44935</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45096</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43327</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43361</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43655</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43685</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44097</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44153</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44477</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44935</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45096</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43327</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43361</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43655</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44683</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44679</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43384</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>43397</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43655</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>43685</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44097</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>44153</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44477</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44657</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44929</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44930</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44935</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45096</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>43322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43327</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43361</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43381</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43397</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43531</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43538</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43542</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43543</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>43558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>43580</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>43585</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43601</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43607</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43634</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43654</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43655</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>43679</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43683</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43692</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43698</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43700</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43725</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43735</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43749</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43759</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43762</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43781</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43791</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43793</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43843</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43846</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43860</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43867</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43879</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43894</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43916</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43942</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43944</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43948</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43949</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43950</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>43985</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43986</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>43987</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43997</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43998</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44006</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44018</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44021</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44057</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44063</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44064</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44071</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44075</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44078</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44088</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44092</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44144</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44147</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44153</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44161</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44166</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44200</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44209</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44213</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44224</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44230</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44258</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44315</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44343</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44361</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>44369</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44391</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44404</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44420</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>44424</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44488</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44540</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44553</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44585</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44586</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44610</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44614</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44616</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>44657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>44665</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44676</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44679</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44696</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44720</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44763</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44776</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>44777</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44798</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44803</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44814</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44816</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44827</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44848</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44867</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44869</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44914</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44916</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44929</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44934</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44951</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44958</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44960</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>44974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44976</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44978</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45000</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45010</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45013</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45022</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45027</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -641,27 +641,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 26865-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 26865-2020.xlsx", "A 26865-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 26865-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 26865-2020.png", "A 26865-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 26865-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 26865-2020.docx", "A 26865-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 26865-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 26865-2020.docx", "A 26865-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 26865-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 26865-2020.docx", "A 26865-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 26865-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 26865-2020.docx", "A 26865-2020")</f>
         <v/>
       </c>
     </row>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -730,27 +730,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 17046-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 17046-2023.xlsx", "A 17046-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 17046-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 17046-2023.png", "A 17046-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 17046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 17046-2023.docx", "A 17046-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 17046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 17046-2023.docx", "A 17046-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 17046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 17046-2023.docx", "A 17046-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 17046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 17046-2023.docx", "A 17046-2023")</f>
         <v/>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,27 +823,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35656-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35656-2019.xlsx", "A 35656-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35656-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35656-2019.png", "A 35656-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35656-2019.docx", "A 35656-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35656-2019.docx", "A 35656-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35656-2019.docx", "A 35656-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35656-2019.docx", "A 35656-2019")</f>
         <v/>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -910,27 +910,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 17970-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 17970-2022.xlsx", "A 17970-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 17970-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 17970-2022.png", "A 17970-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 17970-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 17970-2022.docx", "A 17970-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 17970-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 17970-2022.docx", "A 17970-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 17970-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 17970-2022.docx", "A 17970-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 17970-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 17970-2022.docx", "A 17970-2022")</f>
         <v/>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>44679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 17532-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 17532-2022.xlsx", "A 17532-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 17532-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 17532-2022.png", "A 17532-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 17532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 17532-2022.docx", "A 17532-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 17532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 17532-2022.docx", "A 17532-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 17532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 17532-2022.docx", "A 17532-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 17532-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 17532-2022.docx", "A 17532-2022")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1082,27 +1082,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35946-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35946-2023.xlsx", "A 35946-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35946-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35946-2023.png", "A 35946-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35946-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35946-2023.docx", "A 35946-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35946-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35946-2023.docx", "A 35946-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35946-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35946-2023.docx", "A 35946-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35946-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35946-2023.docx", "A 35946-2023")</f>
         <v/>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>43384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,27 +1172,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 52696-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 52696-2018.xlsx", "A 52696-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 52696-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 52696-2018.png", "A 52696-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 52696-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 52696-2018.docx", "A 52696-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 52696-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 52696-2018.docx", "A 52696-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 52696-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 52696-2018.docx", "A 52696-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 52696-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 52696-2018.docx", "A 52696-2018")</f>
         <v/>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1257,27 +1257,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 55545-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 55545-2018.xlsx", "A 55545-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 55545-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 55545-2018.png", "A 55545-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 55545-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 55545-2018.docx", "A 55545-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 55545-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 55545-2018.docx", "A 55545-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 55545-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 55545-2018.docx", "A 55545-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 55545-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 55545-2018.docx", "A 55545-2018")</f>
         <v/>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>43487</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,27 +1347,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 5030-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 5030-2019.xlsx", "A 5030-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 5030-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 5030-2019.png", "A 5030-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 5030-2019.docx", "A 5030-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 5030-2019.docx", "A 5030-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 5030-2019.docx", "A 5030-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 5030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 5030-2019.docx", "A 5030-2019")</f>
         <v/>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>43508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,27 +1432,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 9579-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 9579-2019.xlsx", "A 9579-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 9579-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 9579-2019.png", "A 9579-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 9579-2019.docx", "A 9579-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 9579-2019.docx", "A 9579-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 9579-2019.docx", "A 9579-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 9579-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 9579-2019.docx", "A 9579-2019")</f>
         <v/>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>43655</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,27 +1522,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35654-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 35654-2019.xlsx", "A 35654-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35654-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 35654-2019.png", "A 35654-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 35654-2019.docx", "A 35654-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 35654-2019.docx", "A 35654-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 35654-2019.docx", "A 35654-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35654-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 35654-2019.docx", "A 35654-2019")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>43685</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,27 +1607,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 38446-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 38446-2019.xlsx", "A 38446-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 38446-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 38446-2019.png", "A 38446-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 38446-2019.docx", "A 38446-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 38446-2019.docx", "A 38446-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 38446-2019.docx", "A 38446-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 38446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 38446-2019.docx", "A 38446-2019")</f>
         <v/>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
         <v>43950</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,27 +1697,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 20974-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 20974-2020.xlsx", "A 20974-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 20974-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 20974-2020.png", "A 20974-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 20974-2020.docx", "A 20974-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 20974-2020.docx", "A 20974-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 20974-2020.docx", "A 20974-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 20974-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 20974-2020.docx", "A 20974-2020")</f>
         <v/>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,27 +1782,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 42905-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 42905-2020.xlsx", "A 42905-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 42905-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 42905-2020.png", "A 42905-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 42905-2020.docx", "A 42905-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 42905-2020.docx", "A 42905-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 42905-2020.docx", "A 42905-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 42905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 42905-2020.docx", "A 42905-2020")</f>
         <v/>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>44097</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1872,27 +1872,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 47314-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 47314-2020.xlsx", "A 47314-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 47314-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 47314-2020.png", "A 47314-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 47314-2020.docx", "A 47314-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 47314-2020.docx", "A 47314-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 47314-2020.docx", "A 47314-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 47314-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 47314-2020.docx", "A 47314-2020")</f>
         <v/>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>44153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1962,27 +1962,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 60559-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 60559-2020.xlsx", "A 60559-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 60559-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 60559-2020.png", "A 60559-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 60559-2020.docx", "A 60559-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 60559-2020.docx", "A 60559-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 60559-2020.docx", "A 60559-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 60559-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 60559-2020.docx", "A 60559-2020")</f>
         <v/>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
         <v>44355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,27 +2052,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 28140-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 28140-2021.xlsx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 28140-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 28140-2021.png", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 28140-2021.docx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 28140-2021.docx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 28140-2021.docx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 28140-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 28140-2021.docx", "A 28140-2021")</f>
         <v/>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>44477</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,27 +2137,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 56068-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 56068-2021.xlsx", "A 56068-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 56068-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 56068-2021.png", "A 56068-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 56068-2021.docx", "A 56068-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 56068-2021.docx", "A 56068-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 56068-2021.docx", "A 56068-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 56068-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 56068-2021.docx", "A 56068-2021")</f>
         <v/>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         <v>44657</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,27 +2222,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 15075-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 15075-2022.xlsx", "A 15075-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 15075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 15075-2022.png", "A 15075-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 15075-2022.docx", "A 15075-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 15075-2022.docx", "A 15075-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 15075-2022.docx", "A 15075-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 15075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 15075-2022.docx", "A 15075-2022")</f>
         <v/>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>44929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2312,27 +2312,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 364-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 364-2023.xlsx", "A 364-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 364-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 364-2023.png", "A 364-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 364-2023.docx", "A 364-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 364-2023.docx", "A 364-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 364-2023.docx", "A 364-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 364-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 364-2023.docx", "A 364-2023")</f>
         <v/>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,27 +2397,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 515-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 515-2023.xlsx", "A 515-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 515-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 515-2023.png", "A 515-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 515-2023.docx", "A 515-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 515-2023.docx", "A 515-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 515-2023.docx", "A 515-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 515-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 515-2023.docx", "A 515-2023")</f>
         <v/>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
         <v>44935</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2482,27 +2482,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 1195-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 1195-2023.xlsx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 1195-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 1195-2023.png", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 1195-2023.docx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 1195-2023.docx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 1195-2023.docx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 1195-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 1195-2023.docx", "A 1195-2023")</f>
         <v/>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         <v>45096</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2567,27 +2567,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx", "A 27073-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png", "A 27073-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
         <v>43322</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43361</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43381</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43384</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43487</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43506</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43531</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43538</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43542</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43580</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43584</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43585</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43607</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43649</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43654</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43683</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43700</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43703</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43725</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43735</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43759</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43776</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43781</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43791</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43846</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43867</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43879</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43894</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43908</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43916</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43942</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43944</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43949</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43950</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43971</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43986</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43987</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43997</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43999</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>44006</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44018</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44063</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44064</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44071</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44075</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44078</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44092</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44097</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>44099</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44144</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44147</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44161</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>44166</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44200</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44209</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44213</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44224</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44230</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44238</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44258</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44315</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44343</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44361</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44391</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44404</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44420</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44424</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44540</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44585</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44586</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>44614</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44616</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>44636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44638</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>44643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44665</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44676</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44679</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44696</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44732</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44763</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>44776</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44777</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>44797</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>44798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>44803</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>44814</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44827</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44848</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44855</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44859</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44867</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44869</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44916</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44934</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44937</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44952</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44958</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44960</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44974</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44976</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44998</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45000</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45010</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45022</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43487</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43655</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43685</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43950</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>44097</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44477</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44657</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>44929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44935</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45096</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43322</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43361</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43381</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43384</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43487</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>43487</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43506</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43515</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43522</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43531</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43531</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43538</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43542</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43543</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43558</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43570</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43580</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43584</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43585</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43607</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43634</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43649</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43654</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43654</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43655</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43679</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43683</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43700</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43703</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43725</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43735</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43735</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43759</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43762</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43776</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43781</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43791</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43846</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43860</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43867</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43879</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43894</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43908</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43916</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43929</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43942</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43944</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43948</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>43949</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43949</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43950</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43950</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43971</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43977</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43986</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43987</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43997</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43998</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43999</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>44006</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>44018</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44018</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44021</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44057</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44063</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44064</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44071</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44075</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44078</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44078</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44092</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44097</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>44099</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44144</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>44144</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44147</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>44161</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>44166</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44200</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44209</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44213</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44224</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44230</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44238</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44258</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44315</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44343</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44343</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44361</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44369</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>44391</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44404</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44420</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44424</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44488</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44540</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44585</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44586</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>44614</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44616</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>44636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44638</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>44643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44651</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44665</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44665</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44676</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44679</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>44696</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44732</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44732</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44763</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>44776</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>44777</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44777</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44791</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>44797</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>44798</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>44803</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>44814</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44816</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44827</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44837</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44848</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44855</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44859</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44867</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44869</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44914</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44916</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44934</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44937</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>44952</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44958</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>44958</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44960</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>44960</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>44974</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44976</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44978</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44998</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45000</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45010</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45022</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43487</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43655</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43685</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43950</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>44097</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44477</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44657</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>44929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44935</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,14 +2509,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27073-2023</t>
+          <t>A 13183-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45096</v>
+        <v>45002</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2528,17 +2528,22 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2553,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2563,102 +2568,130 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 13183-2023.xlsx", "A 13183-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 13183-2023.png", "A 13183-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 13183-2023.docx", "A 13183-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 13183-2023.docx", "A 13183-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 13183-2023.docx", "A 13183-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 13183-2023.docx", "A 13183-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 27073-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45096</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>HALLSBERG</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
           <t>Ullticka</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/artfynd/A 27073-2023.xlsx", "A 27073-2023")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/kartor/A 27073-2023.png", "A 27073-2023")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomål/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/klagomålsmail/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsyn/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLSBERG/tillsynsmail/A 27073-2023.docx", "A 27073-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 35036-2018</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>43322</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-    </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35930-2018</t>
+          <t>A 35036-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43327</v>
+        <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2671,7 +2704,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2708,14 +2741,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43034-2018</t>
+          <t>A 35930-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43353</v>
+        <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2765,14 +2798,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43041-2018</t>
+          <t>A 43034-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2785,7 +2818,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2822,14 +2855,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44693-2018</t>
+          <t>A 43041-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43361</v>
+        <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2842,7 +2875,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2879,14 +2912,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45692-2018</t>
+          <t>A 44693-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43362</v>
+        <v>43361</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2936,14 +2969,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 51714-2018</t>
+          <t>A 45692-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43381</v>
+        <v>43362</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2956,7 +2989,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2993,14 +3026,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 52734-2018</t>
+          <t>A 51714-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43384</v>
+        <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3012,13 +3045,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3055,14 +3083,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55557-2018</t>
+          <t>A 52734-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43397</v>
+        <v>43384</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3080,7 +3108,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3117,14 +3145,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55535-2018</t>
+          <t>A 55557-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,8 +3164,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3174,14 +3207,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55558-2018</t>
+          <t>A 55535-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,13 +3226,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3236,14 +3264,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55556-2018</t>
+          <t>A 55558-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3261,7 +3289,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3298,14 +3326,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65260-2018</t>
+          <t>A 55556-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43432</v>
+        <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3323,7 +3351,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3360,14 +3388,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 65226-2018</t>
+          <t>A 65260-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3385,7 +3413,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3422,14 +3450,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 65351-2018</t>
+          <t>A 65226-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3447,7 +3475,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3484,14 +3512,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 68403-2018</t>
+          <t>A 65351-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43438</v>
+        <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3503,8 +3531,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3541,14 +3574,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5083-2019</t>
+          <t>A 68403-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43487</v>
+        <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3560,13 +3593,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3603,14 +3631,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 5023-2019</t>
+          <t>A 5083-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>43487</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3628,7 +3656,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3665,14 +3693,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9224-2019</t>
+          <t>A 5023-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43506</v>
+        <v>43487</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3684,8 +3712,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3722,14 +3755,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9808-2019</t>
+          <t>A 9224-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43509</v>
+        <v>43506</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3742,7 +3775,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3779,14 +3812,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9816-2019</t>
+          <t>A 9808-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3799,7 +3832,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3836,14 +3869,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11047-2019</t>
+          <t>A 9816-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43515</v>
+        <v>43509</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3856,7 +3889,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3893,14 +3926,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11304-2019</t>
+          <t>A 11047-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43516</v>
+        <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3913,7 +3946,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3950,14 +3983,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12176-2019</t>
+          <t>A 11304-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43522</v>
+        <v>43516</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3970,7 +4003,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4007,14 +4040,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13771-2019</t>
+          <t>A 12176-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43531</v>
+        <v>43522</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4027,7 +4060,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4064,14 +4097,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 13759-2019</t>
+          <t>A 13771-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4084,7 +4117,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4121,14 +4154,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14943-2019</t>
+          <t>A 13759-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43538</v>
+        <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4141,7 +4174,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4178,14 +4211,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14999-2019</t>
+          <t>A 14943-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4198,7 +4231,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.6</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4235,14 +4268,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15084-2019</t>
+          <t>A 14999-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4255,7 +4288,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4292,14 +4325,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15395-2019</t>
+          <t>A 15084-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43542</v>
+        <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4312,7 +4345,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4349,14 +4382,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15623-2019</t>
+          <t>A 15395-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4369,7 +4402,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4406,14 +4439,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17330-2019</t>
+          <t>A 15623-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43552</v>
+        <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4426,7 +4459,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4463,14 +4496,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17341-2019</t>
+          <t>A 17330-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4483,7 +4516,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4520,14 +4553,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17632-2019</t>
+          <t>A 17341-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43556</v>
+        <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4540,7 +4573,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4577,14 +4610,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18331-2019</t>
+          <t>A 17632-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4597,7 +4630,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4634,14 +4667,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20150-2019</t>
+          <t>A 18331-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43570</v>
+        <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4654,7 +4687,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4691,14 +4724,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21409-2019</t>
+          <t>A 20150-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43580</v>
+        <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4711,7 +4744,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4748,14 +4781,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22012-2019</t>
+          <t>A 21409-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43584</v>
+        <v>43580</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4768,7 +4801,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>9.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4805,14 +4838,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22251-2019</t>
+          <t>A 22012-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43585</v>
+        <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4825,7 +4858,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4862,14 +4895,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24729-2019</t>
+          <t>A 22251-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43601</v>
+        <v>43585</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4882,7 +4915,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4919,14 +4952,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26435-2019</t>
+          <t>A 24729-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43607</v>
+        <v>43601</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4939,7 +4972,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4976,14 +5009,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30236-2019</t>
+          <t>A 26435-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43634</v>
+        <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4996,7 +5029,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5033,14 +5066,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30347-2019</t>
+          <t>A 30236-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5052,13 +5085,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5095,14 +5123,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34787-2019</t>
+          <t>A 30347-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43649</v>
+        <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5120,7 +5148,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5157,14 +5185,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35682-2019</t>
+          <t>A 34787-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43654</v>
+        <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5176,8 +5204,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5214,14 +5247,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35673-2019</t>
+          <t>A 35682-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>43654</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5234,7 +5267,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5271,14 +5304,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35532-2019</t>
+          <t>A 35673-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43655</v>
+        <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5291,7 +5324,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5328,14 +5361,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35662-2019</t>
+          <t>A 35532-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5347,13 +5380,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5390,14 +5418,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34279-2019</t>
+          <t>A 35662-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5443,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5452,14 +5480,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34281-2019</t>
+          <t>A 34279-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5505,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5514,14 +5542,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35659-2019</t>
+          <t>A 34281-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5539,7 +5567,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5576,14 +5604,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34277-2019</t>
+          <t>A 35659-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5601,7 +5629,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5638,14 +5666,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35665-2019</t>
+          <t>A 34277-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5663,7 +5691,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5700,14 +5728,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37493-2019</t>
+          <t>A 35665-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43679</v>
+        <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5721,11 +5749,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>5.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5762,14 +5790,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37495-2019</t>
+          <t>A 37493-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5815,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5824,14 +5852,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37494-2019</t>
+          <t>A 37495-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5849,7 +5877,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5886,14 +5914,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 37474-2019</t>
+          <t>A 37494-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5911,7 +5939,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5948,14 +5976,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 37926-2019</t>
+          <t>A 37474-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43683</v>
+        <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,8 +5995,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6005,14 +6038,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39879-2019</t>
+          <t>A 37926-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43692</v>
+        <v>43683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6062,14 +6095,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41174-2019</t>
+          <t>A 39879-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43698</v>
+        <v>43692</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6081,13 +6114,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6124,14 +6152,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41250-2019</t>
+          <t>A 41174-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6149,7 +6177,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6186,14 +6214,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41348-2019</t>
+          <t>A 41250-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6211,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6248,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41182-2019</t>
+          <t>A 41348-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6273,7 +6301,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6310,14 +6338,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41345-2019</t>
+          <t>A 41182-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6335,7 +6363,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6372,14 +6400,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41184-2019</t>
+          <t>A 41345-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6397,7 +6425,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6434,14 +6462,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41864-2019</t>
+          <t>A 41184-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43700</v>
+        <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6453,8 +6481,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6491,14 +6524,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42281-2019</t>
+          <t>A 41864-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43703</v>
+        <v>43700</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6511,7 +6544,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6548,14 +6581,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43851-2019</t>
+          <t>A 42281-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6568,7 +6601,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6605,14 +6638,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43646-2019</t>
+          <t>A 43851-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6625,7 +6658,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6662,14 +6695,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43822-2019</t>
+          <t>A 43646-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6682,7 +6715,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6719,14 +6752,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43642-2019</t>
+          <t>A 43822-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6739,7 +6772,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6776,14 +6809,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43828-2019</t>
+          <t>A 43642-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6796,7 +6829,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6833,14 +6866,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47884-2019</t>
+          <t>A 43828-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43725</v>
+        <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6853,7 +6886,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6890,14 +6923,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47880-2019</t>
+          <t>A 47884-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>43725</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6947,14 +6980,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50543-2019</t>
+          <t>A 47880-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43735</v>
+        <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7004,14 +7037,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50531-2019</t>
+          <t>A 50543-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>43735</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7024,7 +7057,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7061,14 +7094,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51641-2019</t>
+          <t>A 50531-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43740</v>
+        <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7080,13 +7113,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7123,14 +7151,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53726-2019</t>
+          <t>A 51641-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43749</v>
+        <v>43740</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7148,7 +7176,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7185,14 +7213,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55605-2019</t>
+          <t>A 53726-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43759</v>
+        <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7204,8 +7232,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7242,14 +7275,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55613-2019</t>
+          <t>A 55605-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>43759</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7262,7 +7295,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.2</v>
+        <v>6.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7299,14 +7332,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56421-2019</t>
+          <t>A 55613-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43762</v>
+        <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7318,13 +7351,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>23.2</v>
+        <v>0.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7361,14 +7389,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56454-2019</t>
+          <t>A 56421-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7386,7 +7414,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.5</v>
+        <v>23.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7423,14 +7451,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60367-2019</t>
+          <t>A 56454-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43776</v>
+        <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7442,8 +7470,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7480,14 +7513,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60626-2019</t>
+          <t>A 60367-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43781</v>
+        <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7500,7 +7533,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7537,14 +7570,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 63117-2019</t>
+          <t>A 60626-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43791</v>
+        <v>43781</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7557,7 +7590,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7594,14 +7627,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 63264-2019</t>
+          <t>A 63117-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43793</v>
+        <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7614,7 +7647,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7651,14 +7684,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1516-2020</t>
+          <t>A 63264-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43843</v>
+        <v>43793</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7671,7 +7704,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7708,14 +7741,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2362-2020</t>
+          <t>A 1516-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43846</v>
+        <v>43843</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7728,7 +7761,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7765,14 +7798,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5275-2020</t>
+          <t>A 2362-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43860</v>
+        <v>43846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7818,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7822,14 +7855,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5667-2020</t>
+          <t>A 5275-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7842,7 +7875,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>10.4</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7879,14 +7912,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6938-2020</t>
+          <t>A 5667-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43867</v>
+        <v>43861</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7899,7 +7932,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7936,14 +7969,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9200-2020</t>
+          <t>A 6938-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43879</v>
+        <v>43867</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7956,7 +7989,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7993,14 +8026,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9211-2020</t>
+          <t>A 9200-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8013,7 +8046,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>10.7</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8050,14 +8083,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12057-2020</t>
+          <t>A 9211-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43894</v>
+        <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8070,7 +8103,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>10.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8107,14 +8140,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 14453-2020</t>
+          <t>A 12057-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43908</v>
+        <v>43894</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8127,7 +8160,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8164,14 +8197,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16056-2020</t>
+          <t>A 14453-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8184,7 +8217,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8221,14 +8254,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 18553-2020</t>
+          <t>A 16056-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43929</v>
+        <v>43916</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8241,7 +8274,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8278,14 +8311,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18548-2020</t>
+          <t>A 18553-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8298,7 +8331,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8335,14 +8368,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 18555-2020</t>
+          <t>A 18548-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8355,7 +8388,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8392,14 +8425,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19791-2020</t>
+          <t>A 18555-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43942</v>
+        <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8412,7 +8445,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8449,14 +8482,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19784-2020</t>
+          <t>A 19791-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>43942</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8469,7 +8502,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8506,14 +8539,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20129-2020</t>
+          <t>A 19784-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8526,7 +8559,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8563,14 +8596,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20511-2020</t>
+          <t>A 20129-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8582,13 +8615,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8625,14 +8653,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20500-2020</t>
+          <t>A 20511-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8650,7 +8678,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>11.3</v>
+        <v>6.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8687,14 +8715,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 20510-2020</t>
+          <t>A 20500-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8712,7 +8740,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.5</v>
+        <v>11.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8749,14 +8777,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 20544-2020</t>
+          <t>A 20510-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8774,7 +8802,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8811,14 +8839,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 20704-2020</t>
+          <t>A 20544-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8836,7 +8864,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8873,14 +8901,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20705-2020</t>
+          <t>A 20704-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8898,7 +8926,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8935,14 +8963,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20833-2020</t>
+          <t>A 20705-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8960,7 +8988,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8997,14 +9025,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20958-2020</t>
+          <t>A 20833-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9018,11 +9046,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9059,14 +9087,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 22567-2020</t>
+          <t>A 20958-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43963</v>
+        <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9121,14 +9149,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 23717-2020</t>
+          <t>A 22567-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43970</v>
+        <v>43963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9146,7 +9174,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9183,14 +9211,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 23773-2020</t>
+          <t>A 23717-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9208,7 +9236,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>7.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9245,14 +9273,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 23716-2020</t>
+          <t>A 23773-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9298,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9307,14 +9335,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24022-2020</t>
+          <t>A 23716-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9326,8 +9354,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9364,14 +9397,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 24623-2020</t>
+          <t>A 24022-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43977</v>
+        <v>43971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9384,7 +9417,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9421,14 +9454,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24626-2020</t>
+          <t>A 24623-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>43977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9441,7 +9474,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9478,14 +9511,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26196-2020</t>
+          <t>A 24626-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43985</v>
+        <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9498,7 +9531,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9535,14 +9568,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26211-2020</t>
+          <t>A 26196-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9555,7 +9588,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9592,14 +9625,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26477-2020</t>
+          <t>A 26211-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9612,7 +9645,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.2</v>
+        <v>6.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9649,14 +9682,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28193-2020</t>
+          <t>A 26477-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43997</v>
+        <v>43987</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9669,7 +9702,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9706,14 +9739,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28286-2020</t>
+          <t>A 28193-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9725,13 +9758,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9768,14 +9796,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28316-2020</t>
+          <t>A 28286-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>43998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9787,8 +9815,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9825,14 +9858,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 29156-2020</t>
+          <t>A 28316-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9878,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9882,14 +9915,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29804-2020</t>
+          <t>A 29156-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44006</v>
+        <v>43999</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9935,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9939,14 +9972,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32894-2020</t>
+          <t>A 29804-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44018</v>
+        <v>44006</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9992,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9996,14 +10029,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 32887-2020</t>
+          <t>A 32894-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>44018</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10049,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10053,14 +10086,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33049-2020</t>
+          <t>A 32887-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44021</v>
+        <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10106,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10110,14 +10143,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37921-2020</t>
+          <t>A 33049-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44057</v>
+        <v>44021</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10163,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>15.9</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10167,14 +10200,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37900-2020</t>
+          <t>A 37921-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10220,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.8</v>
+        <v>15.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10224,14 +10257,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 37944-2020</t>
+          <t>A 37900-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10277,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10281,14 +10314,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 39252-2020</t>
+          <t>A 37944-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44063</v>
+        <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10334,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10338,14 +10371,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 39995-2020</t>
+          <t>A 39252-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10391,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10395,14 +10428,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 41179-2020</t>
+          <t>A 39995-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44071</v>
+        <v>44064</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10415,7 +10448,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>21.1</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10452,14 +10485,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 42074-2020</t>
+          <t>A 41179-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44075</v>
+        <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10472,7 +10505,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>21.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10509,14 +10542,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 42903-2020</t>
+          <t>A 42074-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44078</v>
+        <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10529,7 +10562,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10566,14 +10599,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43007-2020</t>
+          <t>A 42903-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10585,13 +10618,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10628,14 +10656,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46025-2020</t>
+          <t>A 43007-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44088</v>
+        <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10647,8 +10675,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10685,14 +10718,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 46305-2020</t>
+          <t>A 46025-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44092</v>
+        <v>44088</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10705,7 +10738,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10742,14 +10775,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47322-2020</t>
+          <t>A 46305-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44097</v>
+        <v>44092</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10761,13 +10794,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10804,14 +10832,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48725-2020</t>
+          <t>A 47322-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10823,8 +10851,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10861,14 +10894,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58215-2020</t>
+          <t>A 48725-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44144</v>
+        <v>44099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10914,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10918,14 +10951,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58208-2020</t>
+          <t>A 58215-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10971,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10975,14 +11008,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59076-2020</t>
+          <t>A 58208-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44147</v>
+        <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,13 +11027,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11037,14 +11065,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60538-2020</t>
+          <t>A 59076-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44153</v>
+        <v>44147</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11058,11 +11086,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11099,14 +11127,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60548-2020</t>
+          <t>A 60538-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11118,8 +11146,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11156,14 +11189,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62939-2020</t>
+          <t>A 60548-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44161</v>
+        <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11176,7 +11209,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11213,14 +11246,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63748-2020</t>
+          <t>A 62939-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44166</v>
+        <v>44161</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11232,13 +11265,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11275,14 +11303,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 127-2021</t>
+          <t>A 63748-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11294,8 +11322,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11332,14 +11365,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1618-2021</t>
+          <t>A 127-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44209</v>
+        <v>44200</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11352,7 +11385,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11389,14 +11422,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2303-2021</t>
+          <t>A 1618-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11409,7 +11442,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11446,14 +11479,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 5101-2021</t>
+          <t>A 2303-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44224</v>
+        <v>44213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11466,7 +11499,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11503,14 +11536,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 5651-2021</t>
+          <t>A 5101-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11523,7 +11556,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11560,14 +11593,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 7188-2021</t>
+          <t>A 5651-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44238</v>
+        <v>44230</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,13 +11612,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11622,14 +11650,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10691-2021</t>
+          <t>A 7188-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11641,8 +11669,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11679,14 +11712,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 20335-2021</t>
+          <t>A 10691-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44315</v>
+        <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11699,7 +11732,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11736,14 +11769,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 25688-2021</t>
+          <t>A 20335-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,13 +11788,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>9.6</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11798,14 +11826,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 25718-2021</t>
+          <t>A 25688-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44343</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11823,7 +11851,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>9.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11860,14 +11888,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 29503-2021</t>
+          <t>A 25718-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44361</v>
+        <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,8 +11907,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11917,14 +11950,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31483-2021</t>
+          <t>A 29503-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44369</v>
+        <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11937,7 +11970,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11974,14 +12007,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 31492-2021</t>
+          <t>A 31483-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11994,7 +12027,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12031,14 +12064,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31480-2021</t>
+          <t>A 31492-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12051,7 +12084,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12088,14 +12121,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36591-2021</t>
+          <t>A 31480-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44391</v>
+        <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12108,7 +12141,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12145,14 +12178,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 38131-2021</t>
+          <t>A 36591-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44404</v>
+        <v>44391</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12165,7 +12198,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12202,14 +12235,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40607-2021</t>
+          <t>A 38131-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44420</v>
+        <v>44404</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12222,7 +12255,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12259,14 +12292,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 41410-2021</t>
+          <t>A 40607-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44424</v>
+        <v>44420</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,13 +12311,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12321,14 +12349,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58462-2021</t>
+          <t>A 41410-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44488</v>
+        <v>44424</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12340,8 +12368,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12378,14 +12411,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59176-2021</t>
+          <t>A 58462-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44490</v>
+        <v>44488</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12398,7 +12431,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12435,14 +12468,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 60685-2021</t>
+          <t>A 59176-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44496</v>
+        <v>44490</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12455,7 +12488,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12492,14 +12525,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 69420-2021</t>
+          <t>A 60685-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44531</v>
+        <v>44496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12512,7 +12545,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12549,14 +12582,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 71481-2021</t>
+          <t>A 69420-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44540</v>
+        <v>44531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12568,13 +12601,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12611,14 +12639,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 73941-2021</t>
+          <t>A 71481-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12632,11 +12660,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12673,14 +12701,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 73947-2021</t>
+          <t>A 73941-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12698,7 +12726,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12735,14 +12763,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3366-2022</t>
+          <t>A 73947-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44585</v>
+        <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12754,8 +12782,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12792,14 +12825,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3675-2022</t>
+          <t>A 3366-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12812,7 +12845,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12849,14 +12882,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8606-2022</t>
+          <t>A 3675-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44610</v>
+        <v>44586</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12869,7 +12902,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12906,14 +12939,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8869-2022</t>
+          <t>A 8606-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44614</v>
+        <v>44610</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12926,7 +12959,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12963,14 +12996,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 9412-2022</t>
+          <t>A 8869-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44616</v>
+        <v>44614</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12982,13 +13015,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>28.8</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13025,14 +13053,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 12053-2022</t>
+          <t>A 9412-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44636</v>
+        <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13044,8 +13072,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>3.1</v>
+        <v>28.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13082,14 +13115,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12471-2022</t>
+          <t>A 12053-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13102,7 +13135,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13139,14 +13172,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13120-2022</t>
+          <t>A 12471-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44643</v>
+        <v>44638</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13159,7 +13192,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13196,14 +13229,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14335-2022</t>
+          <t>A 13120-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44651</v>
+        <v>44643</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13216,7 +13249,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13253,14 +13286,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 14345-2022</t>
+          <t>A 14335-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13273,7 +13306,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13310,14 +13343,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 14333-2022</t>
+          <t>A 14345-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13330,7 +13363,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13367,14 +13400,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14348-2022</t>
+          <t>A 14333-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13387,7 +13420,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13424,14 +13457,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14928-2022</t>
+          <t>A 14348-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13444,7 +13477,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13481,14 +13514,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15086-2022</t>
+          <t>A 14928-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
         <v>44657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13501,7 +13534,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13538,14 +13571,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 16085-2022</t>
+          <t>A 15086-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44665</v>
+        <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13595,14 +13628,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 16092-2022</t>
+          <t>A 16085-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>44665</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13615,7 +13648,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9.300000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13652,14 +13685,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 17003-2022</t>
+          <t>A 16092-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44676</v>
+        <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13672,7 +13705,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13709,14 +13742,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 17572-2022</t>
+          <t>A 17003-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44679</v>
+        <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13729,7 +13762,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13766,14 +13799,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 19849-2022</t>
+          <t>A 17572-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44696</v>
+        <v>44679</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,13 +13818,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13828,14 +13856,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 23330-2022</t>
+          <t>A 19849-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44720</v>
+        <v>44696</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13847,8 +13875,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13885,14 +13918,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 25480-2022</t>
+          <t>A 23330-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44732</v>
+        <v>44720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13904,13 +13937,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13947,14 +13975,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 25491-2022</t>
+          <t>A 25480-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
         <v>44732</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13972,7 +14000,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14009,14 +14037,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 30621-2022</t>
+          <t>A 25491-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44763</v>
+        <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14030,11 +14058,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14071,14 +14099,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 31747-2022</t>
+          <t>A 30621-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44776</v>
+        <v>44763</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14090,8 +14118,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14128,14 +14161,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 31893-2022</t>
+          <t>A 31747-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14147,13 +14180,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14190,14 +14218,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 31912-2022</t>
+          <t>A 31893-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>44777</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14215,7 +14243,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14252,14 +14280,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 34227-2022</t>
+          <t>A 31912-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44791</v>
+        <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14277,7 +14305,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14314,14 +14342,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 34222-2022</t>
+          <t>A 34227-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>44791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14376,14 +14404,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 35097-2022</t>
+          <t>A 34222-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44797</v>
+        <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14395,8 +14423,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>8.9</v>
+        <v>3.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14433,14 +14466,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 35421-2022</t>
+          <t>A 35097-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14453,7 +14486,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.5</v>
+        <v>8.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14490,14 +14523,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 36276-2022</t>
+          <t>A 35421-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44803</v>
+        <v>44798</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14510,7 +14543,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14547,14 +14580,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 38831-2022</t>
+          <t>A 36276-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44814</v>
+        <v>44803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14567,7 +14600,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14604,14 +14637,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 38921-2022</t>
+          <t>A 38831-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14624,7 +14657,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14661,14 +14694,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 39725-2022</t>
+          <t>A 38921-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14681,7 +14714,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14718,14 +14751,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 38918-2022</t>
+          <t>A 39725-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14738,7 +14771,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14775,14 +14808,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 39249-2022</t>
+          <t>A 38918-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14832,14 +14865,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 41602-2022</t>
+          <t>A 39249-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44827</v>
+        <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14851,13 +14884,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14894,14 +14922,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 43679-2022</t>
+          <t>A 41602-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44837</v>
+        <v>44827</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14913,8 +14941,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14951,14 +14984,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 46416-2022</t>
+          <t>A 43679-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44848</v>
+        <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14970,13 +15003,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15013,14 +15041,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 48029-2022</t>
+          <t>A 46416-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44855</v>
+        <v>44848</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15034,11 +15062,11 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15075,14 +15103,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 48883-2022</t>
+          <t>A 48029-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44859</v>
+        <v>44855</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15094,8 +15122,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15132,14 +15165,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 50958-2022</t>
+          <t>A 48883-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44867</v>
+        <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15152,7 +15185,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15189,14 +15222,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 51479-2022</t>
+          <t>A 50958-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44869</v>
+        <v>44867</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15208,13 +15241,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15251,14 +15279,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 61008-2022</t>
+          <t>A 51479-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44914</v>
+        <v>44869</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15270,8 +15298,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15308,14 +15341,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61448-2022</t>
+          <t>A 61008-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44916</v>
+        <v>44914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15327,13 +15360,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15370,14 +15398,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 348-2023</t>
+          <t>A 61448-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44929</v>
+        <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15391,11 +15419,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15432,14 +15460,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 349-2023</t>
+          <t>A 348-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15457,7 +15485,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>10.6</v>
+        <v>3.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15494,14 +15522,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 384-2023</t>
+          <t>A 349-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15515,11 +15543,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>10.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15556,14 +15584,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 958-2023</t>
+          <t>A 384-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44934</v>
+        <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15581,7 +15609,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15618,14 +15646,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1615-2023</t>
+          <t>A 958-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44937</v>
+        <v>44934</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15639,11 +15667,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15680,14 +15708,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 3794-2023</t>
+          <t>A 1615-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44951</v>
+        <v>44937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15701,11 +15729,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15742,14 +15770,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 4116-2023</t>
+          <t>A 3794-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44952</v>
+        <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15761,8 +15789,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15799,14 +15832,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5085-2023</t>
+          <t>A 4116-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44958</v>
+        <v>44952</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15818,13 +15851,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15861,14 +15889,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 5110-2023</t>
+          <t>A 5085-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
         <v>44958</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15880,8 +15908,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15918,14 +15951,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 5617-2023</t>
+          <t>A 5110-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44960</v>
+        <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15938,7 +15971,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15975,14 +16008,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 5601-2023</t>
+          <t>A 5617-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
         <v>44960</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15995,7 +16028,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16032,14 +16065,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 7867-2023</t>
+          <t>A 5601-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44973</v>
+        <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16052,7 +16085,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16089,14 +16122,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 8276-2023</t>
+          <t>A 7867-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44974</v>
+        <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16108,13 +16141,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16151,14 +16179,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 8341-2023</t>
+          <t>A 8276-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44976</v>
+        <v>44974</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16172,11 +16200,11 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16213,14 +16241,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 9663-2023</t>
+          <t>A 8341-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44978</v>
+        <v>44976</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16232,8 +16260,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16270,14 +16303,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 12133-2023</t>
+          <t>A 9663-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44998</v>
+        <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16290,7 +16323,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16327,14 +16360,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 12679-2023</t>
+          <t>A 12133-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45000</v>
+        <v>44998</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16347,7 +16380,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16384,14 +16417,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 13183-2023</t>
+          <t>A 12679-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45002</v>
+        <v>45000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16403,13 +16436,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16453,7 +16481,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16515,7 +16543,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16577,7 +16605,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16639,7 +16667,7 @@
         <v>45010</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16696,7 +16724,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16758,7 +16786,7 @@
         <v>45022</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16815,7 +16843,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16877,7 +16905,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16934,7 +16962,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16991,7 +17019,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17048,7 +17076,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17105,7 +17133,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17162,7 +17190,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17219,7 +17247,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17276,7 +17304,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17333,7 +17361,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17390,7 +17418,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17452,7 +17480,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17514,7 +17542,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17576,7 +17604,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17638,7 +17666,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17695,7 +17723,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17752,7 +17780,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17814,7 +17842,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17871,7 +17899,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17928,7 +17956,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17985,7 +18013,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18047,7 +18075,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18104,7 +18132,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18166,7 +18194,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18223,7 +18251,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18280,7 +18308,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18337,7 +18365,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18394,7 +18422,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18451,7 +18479,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18508,7 +18536,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18565,7 +18593,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18622,7 +18650,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18679,7 +18707,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18736,7 +18764,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18798,7 +18826,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18860,7 +18888,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43487</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43655</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43685</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43950</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>44097</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44477</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44657</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>44929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44935</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45002</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45096</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43361</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43362</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43384</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43487</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>43487</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43506</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43509</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43516</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43522</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43531</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43538</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43580</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43585</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43601</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43654</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43692</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43700</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43725</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43735</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43740</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43759</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43781</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43793</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43843</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43861</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43867</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43879</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43894</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43908</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43916</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43942</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43944</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43949</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43950</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>43986</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>43987</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>43997</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>43998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>43999</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44006</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44018</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44021</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44063</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44064</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44078</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44088</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>44092</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>44097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44144</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44147</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>44161</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>44166</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44200</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44209</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44224</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>44230</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44238</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44315</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44343</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44391</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44404</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44420</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44424</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44488</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44490</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44540</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44585</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44586</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44610</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44614</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44638</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44643</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44665</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44679</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44696</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44732</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>44763</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44776</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44777</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44797</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44798</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44814</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44827</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44848</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44855</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44867</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44869</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44934</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44952</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44958</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44960</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44974</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44976</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44998</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45010</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45022</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>45148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43384</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43487</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43655</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43685</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43950</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>44097</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44153</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44355</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44477</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44657</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>44929</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44930</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44935</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45002</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45096</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43322</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43353</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43361</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43362</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43384</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43397</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43487</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>43487</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43506</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43509</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43516</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43522</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43531</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43531</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43538</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43542</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43543</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43552</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43558</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43570</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43580</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43584</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43585</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43601</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43634</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43649</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43654</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43655</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>43679</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43683</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43692</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43698</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43700</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43725</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43735</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43740</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43749</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43759</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43776</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43781</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43791</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43793</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43843</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43861</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43867</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43879</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43894</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43908</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43916</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43929</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43942</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43944</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43948</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43949</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43950</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>43970</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43985</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>43986</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>43987</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>43997</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>43998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>43999</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44006</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44018</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44021</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44057</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44063</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44064</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44071</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44078</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44088</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>44092</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>44097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44144</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44147</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>44161</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>44166</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>44200</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44209</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44224</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>44230</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44238</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44315</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>44343</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44361</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44369</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44391</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44404</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44420</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44424</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>44488</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44490</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44540</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44585</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44586</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44610</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44614</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44638</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44643</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44665</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44679</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44696</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44732</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>44763</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44776</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44777</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44797</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44798</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44814</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44816</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44827</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>44837</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44848</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44855</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44859</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44867</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44869</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44929</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44934</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44937</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44952</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44958</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>44960</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>44974</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>44976</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44998</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45010</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>45013</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45022</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45027</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45034</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45035</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45040</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45049</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43538</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44679</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45057</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>43384</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43487</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43508</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43655</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43685</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43950</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44657</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44929</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44935</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45002</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>45096</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>43322</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>43361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43384</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>43432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43487</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43487</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43506</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43522</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43538</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43542</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43552</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43558</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43570</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43580</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43585</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43601</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43607</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43634</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43654</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43655</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43679</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43692</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43698</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43725</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43735</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43740</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43759</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43762</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43781</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43791</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43793</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43843</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43867</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43879</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43916</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43929</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43942</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43944</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43948</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43949</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43950</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43970</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43971</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43977</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43997</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43998</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43999</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44018</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44021</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44063</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44064</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44071</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44075</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44078</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44092</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44097</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44144</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44147</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44153</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44200</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44209</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44213</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>44224</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44230</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44238</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44315</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44343</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>44369</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44391</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>44404</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44424</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44488</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>44490</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>44496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>44531</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44540</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44586</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44636</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44657</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44665</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44679</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44696</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44720</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44763</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44776</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44777</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44791</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44797</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44798</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44803</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44816</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44827</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44848</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44855</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44859</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44867</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44869</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>44914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>44929</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44934</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44952</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44960</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>44974</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44976</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44978</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44998</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45000</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45002</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45010</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45013</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45027</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45034</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45035</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45040</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45049</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45197</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43538</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44679</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45057</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>43384</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43487</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43508</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43655</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43685</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43950</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44657</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44929</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44935</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45002</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>45096</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>43322</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>43361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43384</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>43432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43487</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43487</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43506</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43522</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43538</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43542</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43552</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43558</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43570</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43580</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43585</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43601</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43607</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43634</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43654</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43655</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43679</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43692</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43698</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43725</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43735</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43740</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43759</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43762</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43781</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43791</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43793</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43843</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43867</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43879</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43916</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43929</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43942</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43944</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43948</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43949</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43950</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43970</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43971</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43977</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43997</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43998</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43999</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44018</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44021</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44063</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44064</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44071</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44075</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44078</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44092</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44097</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44144</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44147</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44153</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44200</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44209</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44213</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>44224</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44230</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44238</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44315</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44343</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>44369</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44391</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>44404</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44424</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44488</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>44490</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>44496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>44531</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44540</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44586</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44636</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44657</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44665</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44679</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44696</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44720</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44763</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44776</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44777</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44791</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44797</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44798</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44803</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44816</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44827</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44848</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44855</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44859</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44867</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44869</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>44914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>44929</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44934</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44952</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44960</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>44974</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44976</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44978</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44998</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45000</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45002</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45010</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45013</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45027</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45034</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45035</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45040</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45049</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45197</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43538</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44679</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45057</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>43384</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43487</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43508</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43655</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43685</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43950</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44657</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44929</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44935</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45002</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>45096</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>43322</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>43361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43384</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>43432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43487</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43487</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43506</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43522</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43538</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43542</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43552</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43558</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43570</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43580</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43585</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43601</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43607</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43634</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43654</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43655</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43679</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43692</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43698</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43725</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43735</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43740</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43759</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43762</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43781</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43791</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43793</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43843</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43867</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43879</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43916</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43929</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43942</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43944</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43948</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43949</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43950</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43970</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43971</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43977</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43997</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43998</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43999</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44018</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44021</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44063</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44064</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44071</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44075</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44078</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44092</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44097</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44144</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44147</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44153</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44200</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44209</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44213</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>44224</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44230</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44238</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44315</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44343</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>44369</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44391</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>44404</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44424</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44488</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>44490</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>44496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>44531</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44540</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44586</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44636</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44657</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44665</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44679</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44696</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44720</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44763</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44776</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44777</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44791</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44797</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44798</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44803</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44816</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44827</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44848</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44855</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44859</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44867</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44869</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>44914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>44929</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44934</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44952</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44960</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>44974</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44976</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44978</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44998</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45000</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45002</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45010</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45013</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45027</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45034</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45035</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45040</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45049</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45197</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43987</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45034</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43655</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44683</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43538</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44679</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>45057</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>43384</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>43397</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43487</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43508</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43655</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43685</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43950</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44078</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44657</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44929</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44930</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44935</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>45002</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>45096</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>43322</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>43353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>43353</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>43361</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>43362</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43384</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43397</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>43432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43487</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43487</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43506</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43516</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43522</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43538</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43538</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43542</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43543</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43552</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43552</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43558</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43570</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43580</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43584</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43585</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43601</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43607</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43634</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43634</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43654</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43655</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43655</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43655</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43655</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43655</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43679</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43679</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43679</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43679</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43692</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43698</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>43698</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43698</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43698</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43725</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43725</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43735</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43735</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43740</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43749</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43759</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43759</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43762</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43776</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43781</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43791</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43793</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43843</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43846</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43860</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43867</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43879</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43879</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43894</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43916</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43929</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43929</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43929</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43942</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43942</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43944</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43948</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43948</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43948</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43948</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43949</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43949</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43950</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43950</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43970</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>43970</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43971</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43977</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43985</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43987</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43997</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43998</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43998</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43999</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44018</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>44018</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44021</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>44057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44063</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44064</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44071</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>44075</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>44078</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>44078</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44092</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44097</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44144</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44144</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44147</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>44153</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44153</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44200</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44209</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44213</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>44224</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44230</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44238</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44315</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44343</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44343</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44361</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44369</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44369</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>44369</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44391</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>44404</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>44424</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44488</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>44490</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>44496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>44531</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>44540</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>44586</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>44610</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44614</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44636</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44643</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44651</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44657</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44665</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44665</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44679</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44696</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44720</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44763</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44776</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44777</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44777</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44791</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44791</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44797</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44798</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44803</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44816</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44816</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44816</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44816</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44827</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44848</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44855</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44859</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44867</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44869</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>44914</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44916</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44929</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>44929</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44934</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44952</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44958</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44958</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44960</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44960</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>44974</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44976</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44978</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44998</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45000</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45002</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45002</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45010</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45013</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45027</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45034</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45034</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45035</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45040</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45049</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45073</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45073</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45073</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45082</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45084</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45084</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45098</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45105</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45120</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45140</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45147</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45149</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45159</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>45159</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>45159</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45160</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45161</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>45161</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>45173</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45174</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45174</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45197</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
